--- a/Quick stats.xlsx
+++ b/Quick stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\Dropbox\Work\Projects\Fast and the Furious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\Dropbox\Work\Projects\Fast &amp; Furious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD917303-4CFB-4804-9283-6B7B8CEA83B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572EA17F-9C0A-4953-A39B-9FA487B60934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1FD73D98-6488-40CA-90AA-876A15A04FCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FD73D98-6488-40CA-90AA-876A15A04FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="race X genre" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -252,10 +246,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'race X genre'!$A$2:$A$13</c:f>
+              <c:f>'race X genre'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -291,6 +285,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,10 +372,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'race X genre'!$A$2:$A$13</c:f>
+              <c:f>'race X genre'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -414,6 +411,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,10 +498,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'race X genre'!$A$2:$A$13</c:f>
+              <c:f>'race X genre'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -537,6 +537,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,16 +2716,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3088,10 +3091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AAB5AF-3603-4AC0-AEDB-3C64D62FE4E2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3276,6 +3279,20 @@
       </c>
       <c r="D13" s="2">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.41100000000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
@@ -3437,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A535F538-E2C2-43AE-9A73-F017D64FFD93}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
